--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/20/seed4/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.2641</v>
+        <v>-12.3816</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.8897</v>
+        <v>-11.7091</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -508,7 +508,7 @@
         <v>-7.43</v>
       </c>
       <c r="E4" t="n">
-        <v>12.6801</v>
+        <v>12.62590000000001</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.09589999999999</v>
+        <v>-12.01729999999999</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.22689999999999</v>
+        <v>11.98699999999999</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.730099999999993</v>
+        <v>-6.858299999999993</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.41009999999999</v>
+        <v>-20.40839999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.756600000000004</v>
+        <v>-8.719900000000003</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.82189999999999</v>
+        <v>11.60749999999999</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.7652</v>
+        <v>-13.80420000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.237</v>
+        <v>13.2419</v>
       </c>
     </row>
     <row r="12">
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.017</v>
+        <v>-14.26030000000001</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.14300000000003</v>
+        <v>-21.89230000000003</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.95499999999999</v>
+        <v>-20.09299999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.01620000000002</v>
+        <v>-21.89920000000003</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.92300000000002</v>
+        <v>-21.97140000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,13 +791,13 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.75270000000001</v>
+        <v>-13.72380000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.369800000000009</v>
+        <v>-8.377100000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8191</v>
+        <v>12.8099</v>
       </c>
     </row>
     <row r="22">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.3554</v>
+        <v>13.2827</v>
       </c>
     </row>
   </sheetData>
